--- a/data/trans_orig/P36B08-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B08-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2510410F-F5C4-4C19-997F-28391AABE94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2805DFD2-4F62-4373-846C-C6A20329A09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FE6E5C28-9BDA-4E56-A8BA-D17B5DF80AAE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4101BACA-82C5-44B7-A839-C32754137E0F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="1031">
   <si>
     <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -1270,7 +1270,112 @@
     <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
   </si>
   <si>
     <t>1,53%</t>
@@ -1486,1491 +1591,1461 @@
     <t>67,57%</t>
   </si>
   <si>
-    <t>2,35%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
   </si>
   <si>
     <t>3,88%</t>
   </si>
   <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
     <t>19,01%</t>
   </si>
   <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2016 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
     <t>1,14%</t>
   </si>
   <si>
@@ -3013,9 +3088,6 @@
     <t>20,22%</t>
   </si>
   <si>
-    <t>19,58%</t>
-  </si>
-  <si>
     <t>21,59%</t>
   </si>
   <si>
@@ -3023,9 +3095,6 @@
   </si>
   <si>
     <t>42,85%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
   </si>
   <si>
     <t>42,03%</t>
@@ -3473,7 +3542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F109E9-F741-44C3-B1AD-B7341A9CF0E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3FAAA5-C6D4-4609-A79C-B155B056CD38}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -6277,7 +6346,7 @@
         <v>908</v>
       </c>
       <c r="I56" s="7">
-        <v>941363</v>
+        <v>941362</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>402</v>
@@ -6328,7 +6397,7 @@
         <v>3296</v>
       </c>
       <c r="I57" s="7">
-        <v>3378138</v>
+        <v>3378137</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>60</v>
@@ -6381,7 +6450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB593A8-DDAF-468A-92D8-6C3A6C236129}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617DBE99-1E7E-4D86-A19F-F9C81921DC3F}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6499,43 +6568,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>8200</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>410</v>
+        <v>25</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>410</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="I4" s="7">
+        <v>14272</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>410</v>
+        <v>65</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="N4" s="7">
+        <v>22472</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>410</v>
+        <v>68</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,43 +6619,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10216</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>410</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I5" s="7">
+        <v>9072</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="N5" s="7">
+        <v>19288</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,43 +6670,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="D6" s="7">
+        <v>66369</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>410</v>
+        <v>281</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="I6" s="7">
+        <v>36752</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="N6" s="7">
+        <v>103121</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>410</v>
+        <v>97</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,43 +6721,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="D7" s="7">
+        <v>96065</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="I7" s="7">
+        <v>70254</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>410</v>
+        <v>102</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>152</v>
+      </c>
+      <c r="N7" s="7">
+        <v>166319</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,43 +6772,49 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="D8" s="7">
+        <v>113889</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="I8" s="7">
+        <v>154851</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>410</v>
+        <v>442</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>245</v>
+      </c>
+      <c r="N8" s="7">
+        <v>268740</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>410</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,43 +6823,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D9" s="7">
+        <v>294738</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>254</v>
+      </c>
+      <c r="I9" s="7">
+        <v>285201</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>536</v>
+      </c>
+      <c r="N9" s="7">
+        <v>579939</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>410</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,10 +6885,10 @@
         <v>325</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -6792,7 +6897,7 @@
         <v>8031</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>113</v>
@@ -6807,13 +6912,13 @@
         <v>21500</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>415</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6834,7 +6939,7 @@
         <v>120</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -6843,13 +6948,13 @@
         <v>18514</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>417</v>
+        <v>452</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="M11" s="7">
         <v>44</v>
@@ -6858,13 +6963,13 @@
         <v>44414</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>422</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6879,13 +6984,13 @@
         <v>182338</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>424</v>
+        <v>459</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="H12" s="7">
         <v>134</v>
@@ -6894,13 +6999,13 @@
         <v>144077</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="M12" s="7">
         <v>305</v>
@@ -6909,13 +7014,13 @@
         <v>326415</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>430</v>
+        <v>465</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>431</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6930,13 +7035,13 @@
         <v>208142</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>432</v>
+        <v>467</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>433</v>
+        <v>468</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="H13" s="7">
         <v>223</v>
@@ -6945,13 +7050,13 @@
         <v>245243</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>435</v>
+        <v>470</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>437</v>
+        <v>472</v>
       </c>
       <c r="M13" s="7">
         <v>415</v>
@@ -6960,13 +7065,13 @@
         <v>453385</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>439</v>
+        <v>474</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>440</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6981,10 +7086,10 @@
         <v>75678</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>441</v>
+        <v>476</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>442</v>
+        <v>477</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>303</v>
@@ -6996,13 +7101,13 @@
         <v>107900</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>443</v>
+        <v>478</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>445</v>
+        <v>480</v>
       </c>
       <c r="M14" s="7">
         <v>166</v>
@@ -7011,13 +7116,13 @@
         <v>183578</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>447</v>
+        <v>482</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7091,7 +7196,7 @@
         <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>449</v>
+        <v>484</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7103,10 +7208,10 @@
         <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>450</v>
+        <v>485</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -7121,7 +7226,7 @@
         <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>452</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7139,10 +7244,10 @@
         <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>453</v>
+        <v>488</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>454</v>
+        <v>489</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -7154,10 +7259,10 @@
         <v>18</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>455</v>
+        <v>490</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -7166,10 +7271,10 @@
         <v>14703</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>456</v>
+        <v>491</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>457</v>
+        <v>492</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>334</v>
@@ -7187,13 +7292,13 @@
         <v>53835</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>458</v>
+        <v>493</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>459</v>
+        <v>494</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="H18" s="7">
         <v>39</v>
@@ -7202,13 +7307,13 @@
         <v>42137</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>463</v>
+        <v>498</v>
       </c>
       <c r="M18" s="7">
         <v>93</v>
@@ -7223,7 +7328,7 @@
         <v>29</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>464</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7238,13 +7343,13 @@
         <v>75257</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>466</v>
+        <v>501</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>467</v>
+        <v>502</v>
       </c>
       <c r="H19" s="7">
         <v>49</v>
@@ -7253,10 +7358,10 @@
         <v>52260</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>144</v>
@@ -7268,13 +7373,13 @@
         <v>127517</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>471</v>
+        <v>506</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>472</v>
+        <v>507</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7289,13 +7394,13 @@
         <v>183239</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>473</v>
+        <v>508</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>474</v>
+        <v>509</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>475</v>
+        <v>510</v>
       </c>
       <c r="H20" s="7">
         <v>224</v>
@@ -7304,13 +7409,13 @@
         <v>240719</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>478</v>
+        <v>513</v>
       </c>
       <c r="M20" s="7">
         <v>401</v>
@@ -7319,13 +7424,13 @@
         <v>423959</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7387,49 +7492,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>15692</v>
+        <v>7492</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>482</v>
+        <v>517</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>483</v>
+        <v>156</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>484</v>
+        <v>518</v>
       </c>
       <c r="H22" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>16064</v>
+        <v>1792</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>485</v>
+        <v>519</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>484</v>
+        <v>520</v>
       </c>
       <c r="M22" s="7">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="N22" s="7">
-        <v>31756</v>
+        <v>9284</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>487</v>
+        <v>521</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>488</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>489</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7438,49 +7543,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D23" s="7">
-        <v>22525</v>
+        <v>12310</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>491</v>
+        <v>524</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>492</v>
+        <v>525</v>
       </c>
       <c r="H23" s="7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I23" s="7">
-        <v>16178</v>
+        <v>7106</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>493</v>
+        <v>330</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>494</v>
+        <v>526</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>495</v>
+        <v>527</v>
       </c>
       <c r="M23" s="7">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="N23" s="7">
-        <v>38703</v>
+        <v>19416</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>413</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>496</v>
+        <v>528</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,49 +7594,49 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="D24" s="7">
-        <v>127141</v>
+        <v>60773</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>498</v>
+        <v>530</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>499</v>
+        <v>531</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>500</v>
+        <v>532</v>
       </c>
       <c r="H24" s="7">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="I24" s="7">
-        <v>84035</v>
+        <v>47283</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>501</v>
+        <v>533</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>503</v>
+        <v>534</v>
       </c>
       <c r="M24" s="7">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="N24" s="7">
-        <v>211176</v>
+        <v>108055</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>504</v>
+        <v>535</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>149</v>
+        <v>536</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,49 +7645,49 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>232</v>
+        <v>144</v>
       </c>
       <c r="D25" s="7">
-        <v>249381</v>
+        <v>153315</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>506</v>
+        <v>538</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>507</v>
+        <v>539</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>508</v>
+        <v>540</v>
       </c>
       <c r="H25" s="7">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="I25" s="7">
-        <v>201854</v>
+        <v>131600</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>509</v>
+        <v>541</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>389</v>
+        <v>542</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>510</v>
+        <v>543</v>
       </c>
       <c r="M25" s="7">
-        <v>422</v>
+        <v>270</v>
       </c>
       <c r="N25" s="7">
-        <v>451234</v>
+        <v>284915</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>511</v>
+        <v>544</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>512</v>
+        <v>545</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>513</v>
+        <v>546</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7591,49 +7696,49 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>239</v>
+        <v>130</v>
       </c>
       <c r="D26" s="7">
-        <v>253981</v>
+        <v>140092</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>514</v>
+        <v>547</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>515</v>
+        <v>548</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="H26" s="7">
-        <v>326</v>
+        <v>190</v>
       </c>
       <c r="I26" s="7">
-        <v>356021</v>
+        <v>201170</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>517</v>
+        <v>550</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>518</v>
+        <v>551</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="M26" s="7">
-        <v>565</v>
+        <v>320</v>
       </c>
       <c r="N26" s="7">
-        <v>610003</v>
+        <v>341263</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>521</v>
+        <v>467</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>522</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,10 +7747,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D27" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7657,10 +7762,10 @@
         <v>60</v>
       </c>
       <c r="H27" s="7">
-        <v>625</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>674152</v>
+        <v>388951</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -7672,10 +7777,10 @@
         <v>60</v>
       </c>
       <c r="M27" s="7">
-        <v>1251</v>
+        <v>715</v>
       </c>
       <c r="N27" s="7">
-        <v>1342872</v>
+        <v>762933</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -7701,13 +7806,13 @@
         <v>2896</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>494</v>
+        <v>555</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>523</v>
+        <v>556</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>524</v>
+        <v>557</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -7716,13 +7821,13 @@
         <v>2987</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>494</v>
+        <v>555</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>525</v>
+        <v>558</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -7731,7 +7836,7 @@
         <v>5883</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>494</v>
+        <v>555</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>202</v>
@@ -7752,13 +7857,13 @@
         <v>17952</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>527</v>
+        <v>426</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>379</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>528</v>
+        <v>559</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -7767,13 +7872,13 @@
         <v>13629</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>529</v>
+        <v>560</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>334</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>530</v>
+        <v>561</v>
       </c>
       <c r="M29" s="7">
         <v>29</v>
@@ -7782,13 +7887,13 @@
         <v>31581</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>531</v>
+        <v>562</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>532</v>
+        <v>563</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>533</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7803,13 +7908,13 @@
         <v>55584</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>534</v>
+        <v>565</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>169</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>535</v>
+        <v>566</v>
       </c>
       <c r="H30" s="7">
         <v>39</v>
@@ -7818,13 +7923,13 @@
         <v>42258</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>536</v>
+        <v>567</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>537</v>
+        <v>568</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>538</v>
+        <v>569</v>
       </c>
       <c r="M30" s="7">
         <v>91</v>
@@ -7833,13 +7938,13 @@
         <v>97842</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>539</v>
+        <v>570</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>306</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>540</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7854,13 +7959,13 @@
         <v>81826</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>541</v>
+        <v>572</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>542</v>
+        <v>573</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
       <c r="H31" s="7">
         <v>89</v>
@@ -7869,13 +7974,13 @@
         <v>90449</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>544</v>
+        <v>575</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>545</v>
+        <v>576</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>546</v>
+        <v>577</v>
       </c>
       <c r="M31" s="7">
         <v>162</v>
@@ -7884,13 +7989,13 @@
         <v>172275</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>547</v>
+        <v>578</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>548</v>
+        <v>579</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>549</v>
+        <v>580</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7905,13 +8010,13 @@
         <v>54360</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>550</v>
+        <v>581</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>551</v>
+        <v>582</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>552</v>
+        <v>583</v>
       </c>
       <c r="H32" s="7">
         <v>68</v>
@@ -7920,13 +8025,13 @@
         <v>70267</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>553</v>
+        <v>584</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>554</v>
+        <v>585</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>555</v>
+        <v>586</v>
       </c>
       <c r="M32" s="7">
         <v>120</v>
@@ -7935,13 +8040,13 @@
         <v>124627</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>556</v>
+        <v>587</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>557</v>
+        <v>588</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>558</v>
+        <v>589</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8015,7 +8120,7 @@
         <v>286</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>559</v>
+        <v>590</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -8024,13 +8129,13 @@
         <v>1951</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>108</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>561</v>
+        <v>592</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -8039,13 +8144,13 @@
         <v>5644</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>562</v>
+        <v>593</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>199</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>563</v>
+        <v>594</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8060,13 +8165,13 @@
         <v>17489</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>564</v>
+        <v>595</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>160</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>565</v>
+        <v>596</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -8075,13 +8180,13 @@
         <v>9112</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>566</v>
+        <v>597</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>294</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>567</v>
+        <v>598</v>
       </c>
       <c r="M35" s="7">
         <v>27</v>
@@ -8090,13 +8195,13 @@
         <v>26601</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>570</v>
+        <v>601</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8111,10 +8216,10 @@
         <v>54302</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>571</v>
+        <v>602</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>572</v>
+        <v>603</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>387</v>
@@ -8129,10 +8234,10 @@
         <v>277</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>573</v>
+        <v>604</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>574</v>
+        <v>605</v>
       </c>
       <c r="M36" s="7">
         <v>86</v>
@@ -8141,13 +8246,13 @@
         <v>89617</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>575</v>
+        <v>606</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>576</v>
+        <v>607</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>577</v>
+        <v>608</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8162,13 +8267,13 @@
         <v>50650</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>578</v>
+        <v>609</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>579</v>
+        <v>610</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>580</v>
+        <v>611</v>
       </c>
       <c r="H37" s="7">
         <v>62</v>
@@ -8177,13 +8282,13 @@
         <v>64715</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>581</v>
+        <v>612</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>582</v>
+        <v>613</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>583</v>
+        <v>614</v>
       </c>
       <c r="M37" s="7">
         <v>109</v>
@@ -8192,13 +8297,13 @@
         <v>115365</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>584</v>
+        <v>615</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>145</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>585</v>
+        <v>616</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8213,13 +8318,13 @@
         <v>147848</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>586</v>
+        <v>617</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>587</v>
+        <v>618</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>588</v>
+        <v>619</v>
       </c>
       <c r="H38" s="7">
         <v>161</v>
@@ -8228,13 +8333,13 @@
         <v>167003</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>589</v>
+        <v>620</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>590</v>
+        <v>621</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>591</v>
+        <v>622</v>
       </c>
       <c r="M38" s="7">
         <v>301</v>
@@ -8243,13 +8348,13 @@
         <v>314851</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>592</v>
+        <v>623</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>593</v>
+        <v>624</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>594</v>
+        <v>625</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8317,7 +8422,7 @@
         <v>6636</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>595</v>
+        <v>626</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>328</v>
@@ -8332,13 +8437,13 @@
         <v>4106</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>596</v>
+        <v>627</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>597</v>
+        <v>628</v>
       </c>
       <c r="M40" s="7">
         <v>11</v>
@@ -8347,13 +8452,13 @@
         <v>10742</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>598</v>
+        <v>629</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>523</v>
+        <v>556</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>599</v>
+        <v>630</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8368,13 +8473,13 @@
         <v>26514</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>600</v>
+        <v>529</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>602</v>
+        <v>632</v>
       </c>
       <c r="H41" s="7">
         <v>18</v>
@@ -8383,13 +8488,13 @@
         <v>20395</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>603</v>
+        <v>633</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>604</v>
+        <v>634</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>605</v>
+        <v>635</v>
       </c>
       <c r="M41" s="7">
         <v>43</v>
@@ -8398,13 +8503,13 @@
         <v>46908</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>606</v>
+        <v>636</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>607</v>
+        <v>413</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>608</v>
+        <v>637</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8419,13 +8524,13 @@
         <v>137275</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>609</v>
+        <v>638</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>610</v>
+        <v>639</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>611</v>
+        <v>640</v>
       </c>
       <c r="H42" s="7">
         <v>92</v>
@@ -8434,13 +8539,13 @@
         <v>97263</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>612</v>
+        <v>641</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>613</v>
+        <v>642</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>614</v>
+        <v>643</v>
       </c>
       <c r="M42" s="7">
         <v>222</v>
@@ -8452,10 +8557,10 @@
         <v>125</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>615</v>
+        <v>644</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>616</v>
+        <v>645</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8470,13 +8575,13 @@
         <v>214776</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>617</v>
+        <v>646</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>618</v>
+        <v>647</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>619</v>
+        <v>648</v>
       </c>
       <c r="H43" s="7">
         <v>171</v>
@@ -8485,13 +8590,13 @@
         <v>191591</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>620</v>
+        <v>649</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>621</v>
+        <v>650</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>622</v>
+        <v>651</v>
       </c>
       <c r="M43" s="7">
         <v>366</v>
@@ -8500,13 +8605,13 @@
         <v>406367</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>623</v>
+        <v>652</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>624</v>
+        <v>653</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>625</v>
+        <v>654</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8521,13 +8626,13 @@
         <v>272437</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>626</v>
+        <v>655</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>627</v>
+        <v>656</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>628</v>
+        <v>657</v>
       </c>
       <c r="H44" s="7">
         <v>348</v>
@@ -8536,13 +8641,13 @@
         <v>375795</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>629</v>
+        <v>658</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>630</v>
+        <v>659</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>631</v>
+        <v>660</v>
       </c>
       <c r="M44" s="7">
         <v>604</v>
@@ -8551,13 +8656,13 @@
         <v>648232</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>632</v>
+        <v>661</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>633</v>
+        <v>662</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>634</v>
+        <v>663</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8625,13 +8730,13 @@
         <v>11333</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>635</v>
+        <v>664</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>636</v>
+        <v>665</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>637</v>
+        <v>666</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -8643,10 +8748,10 @@
         <v>15</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>638</v>
+        <v>667</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>639</v>
+        <v>668</v>
       </c>
       <c r="M46" s="7">
         <v>14</v>
@@ -8658,10 +8763,10 @@
         <v>110</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>640</v>
+        <v>669</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>641</v>
+        <v>670</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8676,13 +8781,13 @@
         <v>29544</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>642</v>
+        <v>671</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>643</v>
+        <v>672</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>644</v>
+        <v>673</v>
       </c>
       <c r="H47" s="7">
         <v>18</v>
@@ -8691,13 +8796,13 @@
         <v>20226</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>645</v>
+        <v>674</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>646</v>
+        <v>528</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M47" s="7">
         <v>46</v>
@@ -8706,7 +8811,7 @@
         <v>49770</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>647</v>
+        <v>675</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>162</v>
@@ -8727,13 +8832,13 @@
         <v>171475</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>648</v>
+        <v>676</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>649</v>
+        <v>677</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>650</v>
+        <v>678</v>
       </c>
       <c r="H48" s="7">
         <v>129</v>
@@ -8742,13 +8847,13 @@
         <v>139947</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>651</v>
+        <v>679</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>652</v>
+        <v>680</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>653</v>
+        <v>681</v>
       </c>
       <c r="M48" s="7">
         <v>292</v>
@@ -8757,13 +8862,13 @@
         <v>311422</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>654</v>
+        <v>682</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>655</v>
+        <v>683</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>656</v>
+        <v>684</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -8778,13 +8883,13 @@
         <v>324951</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>657</v>
+        <v>685</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>659</v>
+        <v>687</v>
       </c>
       <c r="H49" s="7">
         <v>317</v>
@@ -8793,13 +8898,13 @@
         <v>339131</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>660</v>
+        <v>688</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>661</v>
+        <v>689</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>662</v>
+        <v>690</v>
       </c>
       <c r="M49" s="7">
         <v>612</v>
@@ -8808,13 +8913,13 @@
         <v>664082</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>663</v>
+        <v>691</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>664</v>
+        <v>692</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>665</v>
+        <v>693</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8829,13 +8934,13 @@
         <v>240765</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>666</v>
+        <v>694</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>667</v>
+        <v>695</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>668</v>
+        <v>696</v>
       </c>
       <c r="H50" s="7">
         <v>289</v>
@@ -8844,13 +8949,13 @@
         <v>320088</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>669</v>
+        <v>697</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>670</v>
+        <v>698</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>671</v>
+        <v>699</v>
       </c>
       <c r="M50" s="7">
         <v>508</v>
@@ -8859,13 +8964,13 @@
         <v>560853</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>672</v>
+        <v>700</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>673</v>
+        <v>430</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>674</v>
+        <v>701</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8939,7 +9044,7 @@
         <v>370</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="H52" s="7">
         <v>35</v>
@@ -8948,10 +9053,10 @@
         <v>36451</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>675</v>
+        <v>702</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>241</v>
@@ -8963,7 +9068,7 @@
         <v>92058</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>483</v>
+        <v>703</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>244</v>
@@ -8981,16 +9086,16 @@
         <v>143</v>
       </c>
       <c r="D53" s="7">
-        <v>148724</v>
+        <v>148723</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>676</v>
+        <v>704</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>334</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>677</v>
+        <v>705</v>
       </c>
       <c r="H53" s="7">
         <v>97</v>
@@ -9014,13 +9119,13 @@
         <v>252680</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>678</v>
+        <v>706</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>243</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>679</v>
+        <v>707</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -9035,10 +9140,10 @@
         <v>781950</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>680</v>
+        <v>708</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>681</v>
+        <v>709</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>388</v>
@@ -9050,13 +9155,13 @@
         <v>585032</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>471</v>
+        <v>506</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>682</v>
+        <v>710</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>683</v>
+        <v>711</v>
       </c>
       <c r="M54" s="7">
         <v>1287</v>
@@ -9065,13 +9170,13 @@
         <v>1366982</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>684</v>
+        <v>712</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>685</v>
+        <v>713</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>686</v>
+        <v>714</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -9083,16 +9188,16 @@
         <v>1110</v>
       </c>
       <c r="D55" s="7">
-        <v>1204983</v>
+        <v>1204982</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>687</v>
+        <v>715</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>688</v>
+        <v>716</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>689</v>
+        <v>717</v>
       </c>
       <c r="H55" s="7">
         <v>1101</v>
@@ -9101,10 +9206,10 @@
         <v>1185243</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>690</v>
+        <v>718</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>622</v>
+        <v>651</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>236</v>
@@ -9116,13 +9221,13 @@
         <v>2390226</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>691</v>
+        <v>719</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>692</v>
+        <v>545</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>693</v>
+        <v>720</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -9137,13 +9242,13 @@
         <v>1228309</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>694</v>
+        <v>721</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>695</v>
+        <v>722</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>696</v>
+        <v>723</v>
       </c>
       <c r="H56" s="7">
         <v>1513</v>
@@ -9152,28 +9257,28 @@
         <v>1637794</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>698</v>
+        <v>725</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>587</v>
+        <v>618</v>
       </c>
       <c r="M56" s="7">
         <v>2665</v>
       </c>
       <c r="N56" s="7">
-        <v>2866102</v>
+        <v>2866103</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>699</v>
+        <v>726</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>700</v>
+        <v>727</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>701</v>
+        <v>728</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -9185,7 +9290,7 @@
         <v>3202</v>
       </c>
       <c r="D57" s="7">
-        <v>3419572</v>
+        <v>3419571</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>60</v>
@@ -9215,7 +9320,7 @@
         <v>6493</v>
       </c>
       <c r="N57" s="7">
-        <v>6968048</v>
+        <v>6968049</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>60</v>
@@ -9253,7 +9358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1611D5-7156-4F57-823C-3F04576DF6BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C071400-D664-496F-ABD9-045E1DE1C119}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9270,7 +9375,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>702</v>
+        <v>729</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9380,10 +9485,10 @@
         <v>330</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>636</v>
+        <v>665</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>703</v>
+        <v>730</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -9392,13 +9497,13 @@
         <v>2889</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>595</v>
+        <v>626</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>704</v>
+        <v>731</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>705</v>
+        <v>732</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -9407,13 +9512,13 @@
         <v>8248</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>706</v>
+        <v>733</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9431,10 +9536,10 @@
         <v>334</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>488</v>
+        <v>736</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>709</v>
+        <v>737</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -9443,7 +9548,7 @@
         <v>2519</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>108</v>
@@ -9461,10 +9566,10 @@
         <v>162</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>711</v>
+        <v>739</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>420</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9479,13 +9584,13 @@
         <v>40896</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>712</v>
+        <v>740</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>713</v>
+        <v>741</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>714</v>
+        <v>742</v>
       </c>
       <c r="H6" s="7">
         <v>36</v>
@@ -9494,13 +9599,13 @@
         <v>36184</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>715</v>
+        <v>743</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>716</v>
+        <v>744</v>
       </c>
       <c r="M6" s="7">
         <v>71</v>
@@ -9509,13 +9614,13 @@
         <v>77079</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>717</v>
+        <v>745</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>718</v>
+        <v>746</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>719</v>
+        <v>747</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9530,13 +9635,13 @@
         <v>75486</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>720</v>
+        <v>748</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -9548,10 +9653,10 @@
         <v>276</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
       <c r="M7" s="7">
         <v>117</v>
@@ -9560,13 +9665,13 @@
         <v>125239</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>726</v>
+        <v>754</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>727</v>
+        <v>755</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9581,13 +9686,13 @@
         <v>160182</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>728</v>
+        <v>756</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>729</v>
+        <v>757</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>730</v>
+        <v>758</v>
       </c>
       <c r="H8" s="7">
         <v>186</v>
@@ -9596,13 +9701,13 @@
         <v>195372</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>731</v>
+        <v>759</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>732</v>
+        <v>760</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>733</v>
+        <v>761</v>
       </c>
       <c r="M8" s="7">
         <v>333</v>
@@ -9611,13 +9716,13 @@
         <v>355554</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>734</v>
+        <v>762</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>735</v>
+        <v>763</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9685,10 +9790,10 @@
         <v>4034</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>736</v>
+        <v>764</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>737</v>
+        <v>765</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>287</v>
@@ -9700,13 +9805,13 @@
         <v>5039</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>738</v>
+        <v>766</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>739</v>
+        <v>767</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>740</v>
+        <v>768</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -9736,13 +9841,13 @@
         <v>21809</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>741</v>
+        <v>769</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>166</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -9754,10 +9859,10 @@
         <v>287</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>743</v>
+        <v>771</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>744</v>
+        <v>523</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -9766,10 +9871,10 @@
         <v>31464</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>745</v>
+        <v>772</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>746</v>
+        <v>773</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>205</v>
@@ -9787,13 +9892,13 @@
         <v>131281</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>747</v>
+        <v>774</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>748</v>
+        <v>775</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>749</v>
+        <v>776</v>
       </c>
       <c r="H12" s="7">
         <v>93</v>
@@ -9802,13 +9907,13 @@
         <v>96771</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>750</v>
+        <v>777</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>751</v>
+        <v>778</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>752</v>
+        <v>779</v>
       </c>
       <c r="M12" s="7">
         <v>219</v>
@@ -9817,13 +9922,13 @@
         <v>228052</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>753</v>
+        <v>780</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>754</v>
+        <v>781</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>755</v>
+        <v>782</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9841,10 +9946,10 @@
         <v>183</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>756</v>
+        <v>783</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>757</v>
+        <v>784</v>
       </c>
       <c r="H13" s="7">
         <v>213</v>
@@ -9853,13 +9958,13 @@
         <v>230839</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>758</v>
+        <v>785</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>759</v>
+        <v>786</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>760</v>
+        <v>787</v>
       </c>
       <c r="M13" s="7">
         <v>424</v>
@@ -9868,13 +9973,13 @@
         <v>455360</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>761</v>
+        <v>788</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>762</v>
+        <v>789</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>763</v>
+        <v>790</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9889,10 +9994,10 @@
         <v>115972</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>764</v>
+        <v>791</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>765</v>
+        <v>792</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>33</v>
@@ -9904,13 +10009,13 @@
         <v>178343</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>766</v>
+        <v>793</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>767</v>
+        <v>794</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>768</v>
+        <v>795</v>
       </c>
       <c r="M14" s="7">
         <v>270</v>
@@ -9919,10 +10024,10 @@
         <v>294315</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>769</v>
+        <v>796</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>770</v>
+        <v>797</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>364</v>
@@ -10014,7 +10119,7 @@
         <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>771</v>
+        <v>798</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -10023,13 +10128,13 @@
         <v>1894</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>772</v>
+        <v>799</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>773</v>
+        <v>800</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -10044,13 +10149,13 @@
         <v>3599</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>774</v>
+        <v>801</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>775</v>
+        <v>522</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -10059,13 +10164,13 @@
         <v>4808</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>776</v>
+        <v>802</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>777</v>
+        <v>803</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>778</v>
+        <v>804</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -10077,7 +10182,7 @@
         <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>779</v>
+        <v>805</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>112</v>
@@ -10095,13 +10200,13 @@
         <v>81434</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>780</v>
+        <v>806</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>781</v>
+        <v>807</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>782</v>
+        <v>808</v>
       </c>
       <c r="H18" s="7">
         <v>68</v>
@@ -10110,13 +10215,13 @@
         <v>68027</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>783</v>
+        <v>809</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>784</v>
+        <v>810</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>785</v>
+        <v>811</v>
       </c>
       <c r="M18" s="7">
         <v>152</v>
@@ -10125,13 +10230,13 @@
         <v>149460</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>786</v>
+        <v>812</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>787</v>
+        <v>813</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>788</v>
+        <v>814</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -10146,13 +10251,13 @@
         <v>159335</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>761</v>
+        <v>788</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>790</v>
+        <v>816</v>
       </c>
       <c r="H19" s="7">
         <v>169</v>
@@ -10161,13 +10266,13 @@
         <v>169200</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>791</v>
+        <v>817</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>792</v>
+        <v>818</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>793</v>
+        <v>819</v>
       </c>
       <c r="M19" s="7">
         <v>336</v>
@@ -10176,13 +10281,13 @@
         <v>328536</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>630</v>
+        <v>659</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>794</v>
+        <v>820</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>795</v>
+        <v>821</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10200,10 +10305,10 @@
         <v>225</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>796</v>
+        <v>822</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>797</v>
+        <v>823</v>
       </c>
       <c r="H20" s="7">
         <v>89</v>
@@ -10212,13 +10317,13 @@
         <v>93277</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>799</v>
+        <v>825</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>800</v>
+        <v>826</v>
       </c>
       <c r="M20" s="7">
         <v>167</v>
@@ -10227,13 +10332,13 @@
         <v>165655</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>801</v>
+        <v>827</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>802</v>
+        <v>828</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>618</v>
+        <v>647</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10304,10 +10409,10 @@
         <v>368</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>803</v>
+        <v>829</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>804</v>
+        <v>830</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -10316,13 +10421,13 @@
         <v>10099</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>805</v>
+        <v>831</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>806</v>
+        <v>832</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>807</v>
+        <v>833</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -10331,13 +10436,13 @@
         <v>16704</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>456</v>
+        <v>491</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>808</v>
+        <v>834</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10352,13 +10457,13 @@
         <v>8766</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>809</v>
+        <v>835</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>810</v>
+        <v>836</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>811</v>
+        <v>837</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -10367,13 +10472,13 @@
         <v>5808</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>771</v>
+        <v>798</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>812</v>
+        <v>838</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>813</v>
+        <v>420</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -10382,13 +10487,13 @@
         <v>14574</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>814</v>
+        <v>839</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>815</v>
+        <v>840</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>816</v>
+        <v>841</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10403,13 +10508,13 @@
         <v>57861</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>817</v>
+        <v>842</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>818</v>
+        <v>843</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>819</v>
+        <v>844</v>
       </c>
       <c r="H24" s="7">
         <v>32</v>
@@ -10418,13 +10523,13 @@
         <v>34645</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>820</v>
+        <v>845</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>821</v>
+        <v>846</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>822</v>
+        <v>847</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
@@ -10433,13 +10538,13 @@
         <v>92506</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>823</v>
+        <v>848</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>824</v>
+        <v>849</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>825</v>
+        <v>850</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10454,13 +10559,13 @@
         <v>102135</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>826</v>
+        <v>851</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>827</v>
+        <v>852</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>828</v>
+        <v>853</v>
       </c>
       <c r="H25" s="7">
         <v>79</v>
@@ -10469,13 +10574,13 @@
         <v>83981</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>829</v>
+        <v>854</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>831</v>
+        <v>856</v>
       </c>
       <c r="M25" s="7">
         <v>177</v>
@@ -10484,13 +10589,13 @@
         <v>186116</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>832</v>
+        <v>857</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>833</v>
+        <v>858</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>834</v>
+        <v>859</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10505,13 +10610,13 @@
         <v>194596</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>835</v>
+        <v>860</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>836</v>
+        <v>861</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>837</v>
+        <v>862</v>
       </c>
       <c r="H26" s="7">
         <v>231</v>
@@ -10520,13 +10625,13 @@
         <v>251792</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>838</v>
+        <v>863</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>839</v>
+        <v>864</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>840</v>
+        <v>865</v>
       </c>
       <c r="M26" s="7">
         <v>418</v>
@@ -10535,13 +10640,13 @@
         <v>446388</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>841</v>
+        <v>866</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>842</v>
+        <v>867</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>843</v>
+        <v>868</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10612,7 +10717,7 @@
         <v>108</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>450</v>
+        <v>485</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>371</v>
@@ -10627,10 +10732,10 @@
         <v>108</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>450</v>
+        <v>485</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>844</v>
+        <v>869</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -10642,7 +10747,7 @@
         <v>108</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>450</v>
+        <v>485</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>199</v>
@@ -10666,7 +10771,7 @@
         <v>108</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>845</v>
+        <v>870</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -10675,7 +10780,7 @@
         <v>998</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>846</v>
+        <v>519</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>108</v>
@@ -10696,7 +10801,7 @@
         <v>108</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>847</v>
+        <v>871</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10711,13 +10816,13 @@
         <v>19955</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>848</v>
+        <v>872</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>849</v>
+        <v>873</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>850</v>
+        <v>874</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -10726,13 +10831,13 @@
         <v>21908</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>851</v>
+        <v>875</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>852</v>
+        <v>876</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>853</v>
+        <v>877</v>
       </c>
       <c r="M30" s="7">
         <v>42</v>
@@ -10741,13 +10846,13 @@
         <v>41863</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>854</v>
+        <v>878</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>855</v>
+        <v>879</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>856</v>
+        <v>880</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10762,13 +10867,13 @@
         <v>138473</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>857</v>
+        <v>881</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>858</v>
+        <v>882</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>859</v>
+        <v>883</v>
       </c>
       <c r="H31" s="7">
         <v>133</v>
@@ -10777,13 +10882,13 @@
         <v>129867</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>860</v>
+        <v>884</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>861</v>
+        <v>885</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>862</v>
+        <v>886</v>
       </c>
       <c r="M31" s="7">
         <v>273</v>
@@ -10792,13 +10897,13 @@
         <v>268340</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>863</v>
+        <v>887</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>864</v>
+        <v>888</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>865</v>
+        <v>889</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10813,13 +10918,13 @@
         <v>51836</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>866</v>
+        <v>890</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>867</v>
+        <v>891</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>868</v>
+        <v>892</v>
       </c>
       <c r="H32" s="7">
         <v>66</v>
@@ -10828,13 +10933,13 @@
         <v>65814</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>869</v>
+        <v>893</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>870</v>
+        <v>894</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>871</v>
+        <v>895</v>
       </c>
       <c r="M32" s="7">
         <v>118</v>
@@ -10843,13 +10948,13 @@
         <v>117650</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>872</v>
+        <v>896</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>873</v>
+        <v>897</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>874</v>
+        <v>898</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10917,13 +11022,13 @@
         <v>7058</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>875</v>
+        <v>899</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>163</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>876</v>
+        <v>900</v>
       </c>
       <c r="H34" s="7">
         <v>11</v>
@@ -10932,13 +11037,13 @@
         <v>11627</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>877</v>
+        <v>901</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>878</v>
+        <v>902</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>879</v>
+        <v>903</v>
       </c>
       <c r="M34" s="7">
         <v>18</v>
@@ -10947,13 +11052,13 @@
         <v>18685</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>880</v>
+        <v>904</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>881</v>
+        <v>421</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>882</v>
+        <v>905</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10968,13 +11073,13 @@
         <v>25482</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>883</v>
+        <v>906</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>884</v>
+        <v>907</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>885</v>
+        <v>908</v>
       </c>
       <c r="H35" s="7">
         <v>23</v>
@@ -10983,13 +11088,13 @@
         <v>22874</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>886</v>
+        <v>909</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>116</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>887</v>
+        <v>910</v>
       </c>
       <c r="M35" s="7">
         <v>48</v>
@@ -11001,10 +11106,10 @@
         <v>27</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>888</v>
+        <v>911</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>889</v>
+        <v>912</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11019,13 +11124,13 @@
         <v>88336</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>890</v>
+        <v>913</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>891</v>
+        <v>914</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>892</v>
+        <v>915</v>
       </c>
       <c r="H36" s="7">
         <v>71</v>
@@ -11034,13 +11139,13 @@
         <v>74380</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>893</v>
+        <v>916</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>278</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>894</v>
+        <v>917</v>
       </c>
       <c r="M36" s="7">
         <v>158</v>
@@ -11049,13 +11154,13 @@
         <v>162716</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>895</v>
+        <v>918</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>896</v>
+        <v>919</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>897</v>
+        <v>920</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11070,13 +11175,13 @@
         <v>89255</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>898</v>
+        <v>921</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>899</v>
+        <v>922</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>900</v>
+        <v>923</v>
       </c>
       <c r="H37" s="7">
         <v>97</v>
@@ -11085,13 +11190,13 @@
         <v>101146</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>901</v>
+        <v>924</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>902</v>
+        <v>925</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>903</v>
+        <v>926</v>
       </c>
       <c r="M37" s="7">
         <v>184</v>
@@ -11100,13 +11205,13 @@
         <v>190401</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>904</v>
+        <v>927</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>905</v>
+        <v>928</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>906</v>
+        <v>929</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11121,13 +11226,13 @@
         <v>51980</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>577</v>
+        <v>608</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>907</v>
+        <v>930</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>908</v>
+        <v>931</v>
       </c>
       <c r="H38" s="7">
         <v>60</v>
@@ -11139,10 +11244,10 @@
         <v>225</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>909</v>
+        <v>932</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>910</v>
+        <v>424</v>
       </c>
       <c r="M38" s="7">
         <v>112</v>
@@ -11151,13 +11256,13 @@
         <v>113976</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>911</v>
+        <v>933</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>300</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>912</v>
+        <v>934</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11199,7 +11304,7 @@
         <v>520</v>
       </c>
       <c r="N39" s="7">
-        <v>534134</v>
+        <v>534135</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -11225,13 +11330,13 @@
         <v>12575</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>814</v>
+        <v>839</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>327</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>566</v>
+        <v>597</v>
       </c>
       <c r="H40" s="7">
         <v>5</v>
@@ -11240,7 +11345,7 @@
         <v>4916</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>913</v>
+        <v>935</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>111</v>
@@ -11255,13 +11360,13 @@
         <v>17491</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>711</v>
+        <v>739</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>914</v>
+        <v>936</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>878</v>
+        <v>902</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11276,13 +11381,13 @@
         <v>48971</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>915</v>
+        <v>937</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>916</v>
+        <v>938</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>917</v>
+        <v>939</v>
       </c>
       <c r="H41" s="7">
         <v>29</v>
@@ -11291,13 +11396,13 @@
         <v>33038</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>918</v>
+        <v>940</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>919</v>
+        <v>941</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
       <c r="M41" s="7">
         <v>71</v>
@@ -11306,13 +11411,13 @@
         <v>82009</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>920</v>
+        <v>942</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>921</v>
+        <v>943</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>922</v>
+        <v>944</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11330,7 +11435,7 @@
         <v>263</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>923</v>
+        <v>945</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>220</v>
@@ -11342,13 +11447,13 @@
         <v>153649</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>924</v>
+        <v>946</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>925</v>
+        <v>947</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>926</v>
+        <v>948</v>
       </c>
       <c r="M42" s="7">
         <v>301</v>
@@ -11357,13 +11462,13 @@
         <v>329633</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>785</v>
+        <v>811</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>927</v>
+        <v>949</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>928</v>
+        <v>950</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11378,13 +11483,13 @@
         <v>247387</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>514</v>
+        <v>951</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>929</v>
+        <v>952</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>930</v>
+        <v>953</v>
       </c>
       <c r="H43" s="7">
         <v>228</v>
@@ -11393,13 +11498,13 @@
         <v>242131</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>931</v>
+        <v>954</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>932</v>
+        <v>955</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>933</v>
+        <v>956</v>
       </c>
       <c r="M43" s="7">
         <v>448</v>
@@ -11408,13 +11513,13 @@
         <v>489518</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>934</v>
+        <v>957</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>935</v>
+        <v>958</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>936</v>
+        <v>959</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11429,13 +11534,13 @@
         <v>166455</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>937</v>
+        <v>960</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>938</v>
+        <v>961</v>
       </c>
       <c r="H44" s="7">
         <v>229</v>
@@ -11444,13 +11549,13 @@
         <v>250142</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>939</v>
+        <v>962</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>86</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="M44" s="7">
         <v>378</v>
@@ -11459,13 +11564,13 @@
         <v>416597</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>940</v>
+        <v>963</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>941</v>
+        <v>964</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>942</v>
+        <v>965</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11533,13 +11638,13 @@
         <v>1872</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>943</v>
+        <v>966</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>108</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>803</v>
+        <v>829</v>
       </c>
       <c r="H46" s="7">
         <v>7</v>
@@ -11548,13 +11653,13 @@
         <v>7831</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>944</v>
+        <v>967</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>739</v>
+        <v>767</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>945</v>
+        <v>968</v>
       </c>
       <c r="M46" s="7">
         <v>9</v>
@@ -11563,13 +11668,13 @@
         <v>9703</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>946</v>
+        <v>969</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>947</v>
+        <v>970</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>774</v>
+        <v>801</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -11584,13 +11689,13 @@
         <v>19499</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>948</v>
+        <v>971</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>949</v>
+        <v>972</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>497</v>
+        <v>973</v>
       </c>
       <c r="H47" s="7">
         <v>11</v>
@@ -11599,10 +11704,10 @@
         <v>11403</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>950</v>
+        <v>974</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>112</v>
@@ -11614,10 +11719,10 @@
         <v>30903</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>814</v>
+        <v>839</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>951</v>
+        <v>975</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>293</v>
@@ -11635,13 +11740,13 @@
         <v>161435</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>952</v>
+        <v>976</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>953</v>
+        <v>977</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>954</v>
+        <v>978</v>
       </c>
       <c r="H48" s="7">
         <v>167</v>
@@ -11650,13 +11755,13 @@
         <v>176925</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>955</v>
+        <v>979</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>956</v>
+        <v>980</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>957</v>
+        <v>981</v>
       </c>
       <c r="M48" s="7">
         <v>323</v>
@@ -11665,13 +11770,13 @@
         <v>338361</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>958</v>
+        <v>982</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>959</v>
+        <v>983</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>960</v>
+        <v>984</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -11686,13 +11791,13 @@
         <v>469680</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>961</v>
+        <v>985</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>962</v>
+        <v>986</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>963</v>
+        <v>987</v>
       </c>
       <c r="H49" s="7">
         <v>433</v>
@@ -11701,13 +11806,13 @@
         <v>475664</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>964</v>
+        <v>988</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>965</v>
+        <v>989</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>966</v>
+        <v>990</v>
       </c>
       <c r="M49" s="7">
         <v>888</v>
@@ -11716,13 +11821,13 @@
         <v>945344</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>967</v>
+        <v>991</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>473</v>
+        <v>508</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>968</v>
+        <v>992</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -11737,13 +11842,13 @@
         <v>121938</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>969</v>
+        <v>993</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>970</v>
+        <v>994</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>971</v>
+        <v>995</v>
       </c>
       <c r="H50" s="7">
         <v>134</v>
@@ -11752,13 +11857,13 @@
         <v>151477</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>972</v>
+        <v>996</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>973</v>
+        <v>997</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>974</v>
+        <v>998</v>
       </c>
       <c r="M50" s="7">
         <v>248</v>
@@ -11767,13 +11872,13 @@
         <v>273415</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>975</v>
+        <v>999</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>976</v>
+        <v>1000</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>498</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -11841,10 +11946,10 @@
         <v>38401</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>977</v>
+        <v>1002</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>978</v>
+        <v>1003</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>14</v>
@@ -11874,10 +11979,10 @@
         <v>251</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>979</v>
+        <v>1004</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>635</v>
+        <v>664</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -11892,13 +11997,13 @@
         <v>139981</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>980</v>
+        <v>1005</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>981</v>
+        <v>1006</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>807</v>
+        <v>833</v>
       </c>
       <c r="H53" s="7">
         <v>86</v>
@@ -11907,13 +12012,13 @@
         <v>91104</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>775</v>
+        <v>522</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>982</v>
+        <v>1007</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>983</v>
+        <v>1008</v>
       </c>
       <c r="M53" s="7">
         <v>216</v>
@@ -11922,13 +12027,13 @@
         <v>231085</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>705</v>
+        <v>732</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>337</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>984</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -11943,13 +12048,13 @@
         <v>757181</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>985</v>
+        <v>1010</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>986</v>
+        <v>1011</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>987</v>
+        <v>1012</v>
       </c>
       <c r="H54" s="7">
         <v>638</v>
@@ -11958,13 +12063,13 @@
         <v>662488</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>988</v>
+        <v>1013</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>989</v>
+        <v>1014</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>990</v>
+        <v>1015</v>
       </c>
       <c r="M54" s="7">
         <v>1352</v>
@@ -11973,13 +12078,13 @@
         <v>1419669</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>686</v>
+        <v>714</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>991</v>
+        <v>434</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>992</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -11994,13 +12099,13 @@
         <v>1506272</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>993</v>
+        <v>1017</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>994</v>
+        <v>1018</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>995</v>
+        <v>444</v>
       </c>
       <c r="H55" s="7">
         <v>1400</v>
@@ -12009,13 +12114,13 @@
         <v>1482581</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>996</v>
+        <v>1019</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>997</v>
+        <v>1020</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
       <c r="M55" s="7">
         <v>2847</v>
@@ -12024,13 +12129,13 @@
         <v>2988853</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>999</v>
+        <v>1022</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>1000</v>
+        <v>1023</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>1001</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -12045,13 +12150,13 @@
         <v>935337</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>1002</v>
+        <v>1025</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>1003</v>
+        <v>1026</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>1004</v>
+        <v>1027</v>
       </c>
       <c r="H56" s="7">
         <v>1157</v>
@@ -12063,10 +12168,10 @@
         <v>93</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>890</v>
+        <v>913</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>1005</v>
+        <v>1028</v>
       </c>
       <c r="M56" s="7">
         <v>2044</v>
@@ -12078,10 +12183,10 @@
         <v>353</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>1006</v>
+        <v>1029</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>1007</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -12093,7 +12198,7 @@
         <v>3216</v>
       </c>
       <c r="D57" s="7">
-        <v>3377172</v>
+        <v>3377171</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>60</v>
